--- a/GameDesign/ExcelData/FightSkill_Data.xlsx
+++ b/GameDesign/ExcelData/FightSkill_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29B5A7-9F0D-4C91-8B9E-5A06A7CA05EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563949DE-DB9E-43EA-9FA7-3A414D592334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/FightSkill_Data.xlsx
+++ b/GameDesign/ExcelData/FightSkill_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563949DE-DB9E-43EA-9FA7-3A414D592334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6C9E4-999F-4E53-876E-7925116D956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,14 +424,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" style="1" customWidth="1"/>
     <col min="4" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
   </cols>

--- a/GameDesign/ExcelData/FightSkill_Data.xlsx
+++ b/GameDesign/ExcelData/FightSkill_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6C9E4-999F-4E53-876E-7925116D956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B202C-4564-4BAC-B867-7D65A0652BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,66 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>descrption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attackRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>defendRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconName</t>
+  </si>
+  <si>
+    <t>加强攻击</t>
   </si>
   <si>
     <t>加攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加强攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[10:1]]</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>加强防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[10:1]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[[11:1]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -421,53 +412,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -475,8 +471,11 @@
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -484,10 +483,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>0.2</v>
@@ -495,19 +494,22 @@
       <c r="F3" s="1">
         <v>0.2</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -515,8 +517,11 @@
       <c r="F4" s="1">
         <v>0.5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -524,16 +529,19 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/FightSkill_Data.xlsx
+++ b/GameDesign/ExcelData/FightSkill_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B202C-4564-4BAC-B867-7D65A0652BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAF1BAE-74A9-48D6-98A1-9BCB9B1465EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="4704" windowWidth="15444" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>long</t>
   </si>
@@ -66,9 +66,6 @@
     <t>[[10:1]]</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>加强防御</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>[[11:1]]</t>
+  </si>
+  <si>
+    <t>AtkUP</t>
+  </si>
+  <si>
+    <t>DefUP</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -495,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -503,13 +506,13 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -518,7 +521,7 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -541,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/FightSkill_Data.xlsx
+++ b/GameDesign/ExcelData/FightSkill_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAF1BAE-74A9-48D6-98A1-9BCB9B1465EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4A6F99-9F29-47A4-AF69-840EF8E0C554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4704" windowWidth="15444" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>long</t>
   </si>
@@ -79,6 +79,26 @@
   </si>
   <si>
     <t>DefUP</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -415,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -428,11 +448,11 @@
     <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,10 +472,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -475,10 +498,13 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -498,10 +524,13 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -521,10 +550,13 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -544,6 +576,35 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
